--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2608194.465558332</v>
+        <v>2738575.91173854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577126</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5390208.34411486</v>
+        <v>5691283.089512275</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>29.20332834763746</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>124.8991389358907</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>187.810358941865</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.08946271765174</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -905,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>378.4590285121131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>207.0480212707258</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>65.76071605987983</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>93.06019212483704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1114,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1139,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>363.9633972035468</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>186.8929549569984</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>74.24516229464105</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,10 +1347,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>6.5371949389986</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H11" t="n">
-        <v>7.803010960712776</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396343</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>127.5302873014256</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>35.73210225570839</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.8705585910296</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>79.47996908724501</v>
+        <v>40.61315782650635</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1844,16 +1846,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396343</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2010,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>26.65965921411073</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396343</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855897</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.33552926585361</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>58.33552926585364</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>37.7174186160078</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>8.396749966983895</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>56.62622040975591</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.0661370364531</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>68.62323470405715</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.50949658585825</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>54.43435127852358</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>73.50111029899487</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3661,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3673,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>128.1564515425375</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3709,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>146.3034971231918</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3794,19 +3796,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>18.63890319184938</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.6199240258551</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>293.3094630036083</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.9235766515634</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>12.82988994717986</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.36159051154</v>
+        <v>860.9393037881883</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.501264565245</v>
+        <v>434.0385738014884</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.249047790649</v>
+        <v>414.7863570268928</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>392.8498212151544</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>371.7660434449587</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>358.3859952497895</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>358.3859952497895</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="M2" t="n">
-        <v>358.3859952497895</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1905.608453153611</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1905.608453153611</v>
       </c>
       <c r="U2" t="n">
-        <v>1520.30675795911</v>
+        <v>1647.253543750023</v>
       </c>
       <c r="V2" t="n">
-        <v>1520.30675795911</v>
+        <v>1289.764128876273</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.146011559221</v>
+        <v>1289.764128876273</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.466416767372</v>
+        <v>1282.084534084424</v>
       </c>
       <c r="Y2" t="n">
-        <v>1385.169550762666</v>
+        <v>1280.787668079719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>343.3471304404884</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>343.3471304404884</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.9279254686915</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="C4" t="n">
-        <v>565.9279254686915</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="D4" t="n">
-        <v>402.6111525954622</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="E4" t="n">
-        <v>402.6111525954622</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0926419794055</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.22166195441</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1555.22166195441</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.510194562439</v>
+        <v>1410.0559494498</v>
       </c>
       <c r="W4" t="n">
-        <v>998.657790734952</v>
+        <v>1135.203545622313</v>
       </c>
       <c r="X4" t="n">
-        <v>756.093894180757</v>
+        <v>892.639649068118</v>
       </c>
       <c r="Y4" t="n">
-        <v>756.093894180757</v>
+        <v>666.2968807578601</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1312.407503826393</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>885.5067738396931</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>866.2545570650974</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>844.318021253359</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>419.1938394427592</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082674</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6978991635576</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>950.4838058662885</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.512330082224</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.215464077519</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484407</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484407</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511716</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253902</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>904.0400708529421</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="C7" t="n">
-        <v>732.0675077318581</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="D7" t="n">
-        <v>568.7507348586288</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>402.5425290114823</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>230.6807547860427</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1445.036356416872</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.548807875266</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W7" t="n">
-        <v>1320.548807875266</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.548807875266</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="Y7" t="n">
-        <v>1094.206039565008</v>
+        <v>738.9277078106735</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.734393912848</v>
+        <v>1616.479056928882</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665525</v>
+        <v>1593.618730982586</v>
       </c>
       <c r="D8" t="n">
-        <v>970.6218511919568</v>
+        <v>1574.366514207991</v>
       </c>
       <c r="E8" t="n">
-        <v>948.6853153802184</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5611335696186</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1407.269712569019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273858</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M9" t="n">
-        <v>44.35863542273858</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484407</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511716</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.4493923334804</v>
+        <v>792.8526545450773</v>
       </c>
       <c r="C10" t="n">
-        <v>280.4768292123964</v>
+        <v>620.8800914239932</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>457.5633185507639</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>291.3551127036175</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>119.4933384781779</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1445.036356416872</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1735.635568338772</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1425.522000575262</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.810533183291</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>868.958129355804</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>868.958129355804</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.615361045546</v>
+        <v>983.018623257143</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1794.919545295624</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.018815308924</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>944.7261944939246</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>944.7261944939246</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>519.6020126833248</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>115.2629502727735</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>269.5743483894272</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>985.0826563649263</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>1882.075247182046</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>2779.067837999165</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>2779.067837999165</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149977</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149977</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3008.368163872639</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2611.976814172986</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.256815340734</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1794.919545295624</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>902.1599794416869</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>902.1599794416869</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M12" t="n">
-        <v>902.1599794416869</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N12" t="n">
-        <v>1799.152570258806</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>740.2387613102271</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C13" t="n">
-        <v>568.2661981891431</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D13" t="n">
-        <v>404.9494253159138</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="E13" t="n">
-        <v>238.7412194687674</v>
+        <v>397.3781551332385</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>966.5815296204851</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.2387613102271</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2178.117784637992</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>901.9474939841506</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8233121735508</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397014</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.072890214134</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>2779.067837999165</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149977</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149977</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3008.368163872639</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2611.976814172986</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2611.976814172986</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.966148929522</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299954</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>72.48424976299954</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>275.4928852935398</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1164.974163305011</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5633153126684</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C16" t="n">
-        <v>216.2805182548452</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D16" t="n">
-        <v>216.2805182548452</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2805182548452</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F16" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.29793501347</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935371</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863306</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382441</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608341</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.199820108645</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.488352716674</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W16" t="n">
-        <v>955.6359488891869</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X16" t="n">
-        <v>713.072052334992</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.7292840247341</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988735</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572742</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991801</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478501</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629314</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787241</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164565</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5595,10 +5597,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
         <v>1910.990343986338</v>
@@ -5634,10 +5636,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.947609078273</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>707.975045957189</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>544.6582730839597</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828377</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573981</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W19" t="n">
-        <v>1312.677474344533</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.113577790339</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1070.113577790339</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076615</v>
@@ -5735,52 +5737,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988737</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576489</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076926</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495984</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982685</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.856391133497</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291425</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5829,16 +5831,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>1529.586448057074</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5871,10 +5873,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>161.2274904420443</v>
       </c>
       <c r="E22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2176.752350469914</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.413002695814</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1653.228554196118</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1371.517086804147</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.66468297666</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>854.1007864224655</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7580181122075</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
         <v>4997.579335409525</v>
@@ -6072,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>598.0846618319722</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C25" t="n">
-        <v>598.0846618319722</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>434.7678889587429</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2244.617338176525</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2001.277990402425</v>
       </c>
       <c r="U25" t="n">
-        <v>1813.721166627949</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="V25" t="n">
-        <v>1532.009699235978</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.157295408491</v>
+        <v>1446.241138075242</v>
       </c>
       <c r="X25" t="n">
-        <v>1014.593398854296</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.2506305440379</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6239,13 +6241,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4798.855966881186</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,13 +6262,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>832.9089957654462</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>660.9364326443622</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>497.6196597711329</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>497.6196597711329</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>325.7578855456933</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>159.5009158399254</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6415,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1023.074964477512</v>
       </c>
     </row>
     <row r="29">
@@ -6476,13 +6478,13 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.68756743822</v>
+        <v>606.5662274551883</v>
       </c>
       <c r="C31" t="n">
-        <v>869.7150043171358</v>
+        <v>537.2498287642214</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
         <v>202.0712816655526</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>1710.626312340059</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W31" t="n">
-        <v>1435.773908512572</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X31" t="n">
-        <v>1435.773908512572</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.431140202314</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,16 +6779,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2246.847562449403</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2246.847562449403</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2003.508214675303</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1723.323766175607</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1441.612298783636</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1166.759894956149</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883229</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6944,40 +6946,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3931.435236455013</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7023,13 +7025,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.606254915256</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C37" t="n">
-        <v>896.6336917941717</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D37" t="n">
-        <v>733.3169189209424</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>567.1087130737959</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.114991937579</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y37" t="n">
-        <v>1258.772223627321</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7190,19 +7192,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7254,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5299206506891</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5299206506891</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.9089957654462</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>832.9089957654462</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>669.5922228922169</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>503.3840170450704</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>331.5222428196308</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.491264859194</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.638861031707</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.074964477512</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1023.074964477512</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2047.588607372514</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2459.847729487868</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.847729487868</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>2459.847729487868</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645795</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3280.09244812649</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2922.603033252739</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2922.603033252739</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2510.883034420487</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>351.6283820045025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>351.6283820045025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>351.6283820045025</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N42" t="n">
-        <v>351.6283820045025</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O42" t="n">
-        <v>618.8093763575289</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2045.003545801011</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C43" t="n">
-        <v>2045.003545801011</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D43" t="n">
-        <v>1881.686772927782</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>1881.686772927782</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>1709.824998702342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>1543.568028996574</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>1543.568028996574</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>1443.79946073685</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1501.290788961008</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>1727.818390166846</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>2082.507711461266</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2473.693506431517</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2851.185017307553</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>3206.613145987316</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3497.212357909217</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3624.212488149979</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3577.173874837152</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>3407.038827356287</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="T43" t="n">
-        <v>3163.699479582187</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U43" t="n">
-        <v>2883.515031082491</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V43" t="n">
-        <v>2883.515031082491</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W43" t="n">
-        <v>2608.662627255004</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X43" t="n">
-        <v>2366.098730700809</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y43" t="n">
-        <v>2235.169514513077</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299957</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>72.48424976299957</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L44" t="n">
-        <v>969.4768405801192</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.469431397239</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N44" t="n">
-        <v>2763.462022214359</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O44" t="n">
-        <v>3608.606672365171</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149979</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149979</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149979</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3327.940303297849</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3327.940303297849</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2916.220304465596</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M45" t="n">
-        <v>94.69801151491811</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N45" t="n">
-        <v>991.6906023320378</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.6121340896229</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C46" t="n">
-        <v>673.6395709685389</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D46" t="n">
-        <v>510.3227980953096</v>
+        <v>281.4704040481062</v>
       </c>
       <c r="E46" t="n">
-        <v>344.1145922481631</v>
+        <v>115.2621982009597</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V46" t="n">
-        <v>1230.488352716669</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W46" t="n">
-        <v>955.6359488891819</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X46" t="n">
-        <v>955.6359488891819</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.6359488891819</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>360.4858157331555</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>40.92871399449528</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>330.8189978337128</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>399.3311263402042</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>481.0403493565598</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>374.902922497767</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>462.8067063011424</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>298.7072010455656</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O8" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>88.51522805109107</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>373.7308639970792</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8614,7 +8616,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.694365494648</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5008671890488</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>578.4917564971561</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510359</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701172</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>592.8300751425586</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4022560221682</v>
+        <v>920.2011215599057</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>348.6939416158701</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9243,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>186.3697998820327</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>224.2932485068546</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>408.3532410469382</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.5991224937308</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908398</v>
       </c>
       <c r="N27" t="n">
-        <v>698.7993741930985</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>475.2939470053066</v>
       </c>
       <c r="N33" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P35" t="n">
-        <v>653.7961895378353</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,16 +10673,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059673</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>280.320346557523</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>323.7517007838052</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701175</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>453.8546185715063</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>604.3877546542399</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>482.7542307206702</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>293.0516819980064</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701175</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>53.33881209791602</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>45.53492369608408</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>927.3961502510363</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>775.9541620884372</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.0866837799927</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855909</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458131</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>42.61286918175958</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>204.4061553329445</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396343</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855909</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458131</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439301</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>387.4133387536289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>90.77286840262813</v>
+        <v>129.6396796633668</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.8864645745642</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.759898196019378</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>106.2105945228214</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>110.0981677402029</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.7162783900487</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>268.9858540477148</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>85.73208539717123</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.19817198849185</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.629602785816</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>11.05873059384033</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>167.4048439973641</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>36.43794846617271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>237.1324571177024</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.3132665360054</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.45941660130026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>60.60505772140471</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>79.34073237338161</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>157.3132665360053</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>488904.6429742564</v>
+        <v>489593.0885098457</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>488904.6429742564</v>
+        <v>491822.1241190942</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>488904.6429742564</v>
+        <v>491822.1241190942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391649.0415031057</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391649.0415031059</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492572.66270391</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492572.66270391</v>
+        <v>492572.6627039099</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492572.66270391</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391649.0415031058</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391649.0415031058</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.534610605</v>
+        <v>553320.5346106049</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106051</v>
+        <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
         <v>553320.5346106048</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.882980575</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558381</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="G2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.882980575</v>
       </c>
       <c r="H2" t="n">
-        <v>533928.8829805745</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="I2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="J2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="K2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
+        <v>533928.8829805747</v>
+      </c>
+      <c r="O2" t="n">
         <v>533928.8829805746</v>
       </c>
-      <c r="O2" t="n">
-        <v>424545.0315558379</v>
-      </c>
       <c r="P2" t="n">
-        <v>424545.0315558379</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943097</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.813903054426191e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34761.27815811228</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>34761.27815811234</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.4004538956</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389564</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26448,16 +26450,16 @@
         <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
+        <v>43748.40045389552</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="O4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34761.27815811224</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34761.27815811224</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152853.3293453846</v>
+        <v>148426.5975402141</v>
       </c>
       <c r="C6" t="n">
-        <v>307479.0499635052</v>
+        <v>297091.7108571078</v>
       </c>
       <c r="D6" t="n">
-        <v>307479.0499635049</v>
+        <v>320498.54453072</v>
       </c>
       <c r="E6" t="n">
-        <v>201932.0555682439</v>
+        <v>196691.0637816091</v>
       </c>
       <c r="F6" t="n">
-        <v>334695.7235778461</v>
+        <v>412430.4203382495</v>
       </c>
       <c r="G6" t="n">
-        <v>310270.5002439398</v>
+        <v>412430.4203382498</v>
       </c>
       <c r="H6" t="n">
-        <v>412430.4203382492</v>
+        <v>412430.4203382494</v>
       </c>
       <c r="I6" t="n">
-        <v>412430.4203382492</v>
+        <v>412430.4203382496</v>
       </c>
       <c r="J6" t="n">
-        <v>291707.9033954926</v>
+        <v>285853.1517579606</v>
       </c>
       <c r="K6" t="n">
+        <v>393783.8199812298</v>
+      </c>
+      <c r="L6" t="n">
+        <v>412430.4203382494</v>
+      </c>
+      <c r="M6" t="n">
+        <v>232366.548883082</v>
+      </c>
+      <c r="N6" t="n">
         <v>412430.4203382495</v>
       </c>
-      <c r="L6" t="n">
-        <v>412430.4203382497</v>
-      </c>
-      <c r="M6" t="n">
-        <v>301621.0602291162</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>412430.4203382494</v>
       </c>
-      <c r="O6" t="n">
-        <v>334695.723577846</v>
-      </c>
       <c r="P6" t="n">
-        <v>334695.723577846</v>
+        <v>412430.4203382495</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353619</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353619</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>74.12029283795354</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>267.5282972667659</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.4539500830799454</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>115.0536937655334</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>21.83664327433274</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>185.3794149319307</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>104.4921214299933</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>71.53420788387314</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>57.75377325007423</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>213.4027168294474</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>90.34923771406913</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>270.8454090757002</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28521,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>4.651176503178812e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28810,16 +28812,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.247243640152575e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>3.537754638471188</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>307.7222173213848</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>376.7556864487184</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>276.3264003875791</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35334,7 +35336,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>111.0748027298631</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>199.0809077034623</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>556.0925226638227</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374943</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>555.5504523081125</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.0592278086265</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977451</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>310.3818991832472</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>163.8547131678031</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>188.5286477120453</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>385.2564605346102</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
-        <v>319.4744478891327</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785118</v>
       </c>
       <c r="N27" t="n">
-        <v>677.4563459795569</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="N33" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P35" t="n">
-        <v>616.220827727604</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,16 +37393,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013693</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>257.8052598432935</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374946</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>416.4233556720744</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>566.9967952982157</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>269.8797922757842</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374946</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>15.76345028768472</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>22.4381431837561</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>752.782272366215</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2738575.91173854</v>
+        <v>2737879.250533449</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5691283.089512275</v>
+        <v>5691283.089512274</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.20332834763746</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>108.4090747992698</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.810358941865</v>
+        <v>118.3690164142095</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>266.4414981451791</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>207.0480212707258</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1056,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>65.76071605987983</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1107,10 +1107,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.515078398126852</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>368.803222276793</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>363.9633972035468</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>74.24516229464105</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182444</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>127.5302873014256</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>108.5937695101921</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>40.61315782650635</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>161.6737988100371</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.33552926585361</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>37.7174186160078</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>122.3482352174683</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>56.62622040975591</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>218.008057705788</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>68.62323470405715</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.50949658585825</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536205</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3426,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>73.50111029899487</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>146.3034971231918</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924929</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>11.12043047005107</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>14.54153378665883</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>12.82988994717986</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.9393037881883</v>
+        <v>1230.082836572064</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014884</v>
+        <v>1207.222510625768</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268928</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151544</v>
+        <v>761.9933539990298</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449587</v>
+        <v>740.909576228834</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="K2" t="n">
         <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771737</v>
+        <v>996.5799837771735</v>
       </c>
       <c r="M2" t="n">
-        <v>996.5799837771737</v>
+        <v>996.5799837771735</v>
       </c>
       <c r="N2" t="n">
-        <v>996.5799837771737</v>
+        <v>996.5799837771735</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.08236086926</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="P2" t="n">
         <v>1479.021285111688</v>
@@ -4357,25 +4357,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1905.608453153611</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1905.608453153611</v>
+        <v>1714.181193660504</v>
       </c>
       <c r="U2" t="n">
-        <v>1647.253543750023</v>
+        <v>1714.181193660504</v>
       </c>
       <c r="V2" t="n">
-        <v>1289.764128876273</v>
+        <v>1356.691778786754</v>
       </c>
       <c r="W2" t="n">
-        <v>1289.764128876273</v>
+        <v>1356.691778786754</v>
       </c>
       <c r="X2" t="n">
-        <v>1282.084534084424</v>
+        <v>1247.187662827895</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.787668079719</v>
+        <v>1245.89079682319</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>343.3471304404884</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3471304404884</v>
+        <v>343.3471304404885</v>
       </c>
       <c r="O3" t="n">
         <v>822.2860546829165</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.5894474832489</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>476.5894474832489</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>476.5894474832489</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>476.5894474832489</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578093</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
         <v>1517.507422453208</v>
@@ -4515,25 +4515,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="U4" t="n">
-        <v>1691.767416841771</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.0559494498</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="W4" t="n">
-        <v>1135.203545622313</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="X4" t="n">
-        <v>892.639649068118</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.2968807578601</v>
+        <v>1241.44792086121</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>783.8507533973007</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>356.9500234106007</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.560218633203</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>1287.880623841354</v>
+        <v>1204.995983693536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>1203.699117688831</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1417.526784297715</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548.7617390986079</v>
+        <v>789.560603642277</v>
       </c>
       <c r="C7" t="n">
-        <v>482.3367733815576</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D7" t="n">
-        <v>482.3367733815576</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E7" t="n">
-        <v>316.1285675344111</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4755,22 +4755,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2005.197108438254</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>1723.485641046282</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675126</v>
+        <v>1448.633237218795</v>
       </c>
       <c r="X7" t="n">
-        <v>965.2704761209314</v>
+        <v>1206.069340664601</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.9277078106735</v>
+        <v>979.7265723543426</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.479056928882</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C8" t="n">
-        <v>1593.618730982586</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>1574.366514207991</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="N8" t="n">
-        <v>2107.354917580474</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2107.354917580474</v>
-      </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1633.583883184714</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1632.287017180008</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>119.1699405917395</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.8526545450773</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>620.8800914239932</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>457.5633185507639</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>291.3551127036175</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>119.4933384781779</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -5001,13 +5001,13 @@
         <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.361391567401</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="Y10" t="n">
-        <v>983.018623257143</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883225</v>
@@ -5044,13 +5044,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N11" t="n">
         <v>2988.069926596602</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>557.3635891120873</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>557.3635891120873</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>557.3635891120873</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.5863609803849</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C13" t="n">
-        <v>563.5863609803849</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D13" t="n">
-        <v>563.5863609803849</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E13" t="n">
-        <v>397.3781551332385</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
         <v>268.5596831115964</v>
@@ -5211,40 +5211,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2173.025064546039</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1929.685716771939</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1649.501268272243</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1649.501268272243</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1374.648864444756</v>
       </c>
       <c r="X13" t="n">
-        <v>789.9291292906429</v>
+        <v>1132.084967890562</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.5863609803849</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,22 +5281,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5369,16 +5369,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1828.971033901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>888.2776948471594</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>847.2543031032136</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>683.9375302299843</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.350328423678</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1304.786431869483</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.443663559225</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787244</v>
@@ -5603,10 +5603,10 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2119.408873334071</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2119.408873334071</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2119.408873334071</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.5168264363576</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>324.5442633152736</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>161.2274904420443</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0255634586812</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>686.6827951484232</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6077,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2244.617338176525</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2001.277990402425</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1721.093541902729</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1721.093541902729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1446.241138075242</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.677241521047</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>832.9089957654462</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>660.9364326443622</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>497.6196597711329</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>497.6196597711329</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>325.7578855456933</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>159.5009158399254</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6420,16 +6420,16 @@
         <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.491264859194</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W28" t="n">
-        <v>1265.638861031707</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.074964477512</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.074964477512</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>606.5662274551883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>537.2498287642214</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.638861031707</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.074964477512</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>796.7321961672538</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6779,16 +6779,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.8532300916962</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>697.8532300916962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2246.847562449403</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.847562449403</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2003.508214675303</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1723.323766175607</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1441.612298783636</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1166.759894956149</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>924.1959984019542</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.8532300916962</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
@@ -6937,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6946,43 +6946,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7025,13 +7025,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
         <v>274.1644876312681</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1991.298534268705</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.298534268705</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.587066876733</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,64 +7162,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177542</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2087.895817280684</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1844.556469506584</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1844.556469506584</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1844.556469506584</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M42" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>775.6620294727279</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C43" t="n">
-        <v>603.6894663516439</v>
+        <v>847.3030669618348</v>
       </c>
       <c r="D43" t="n">
-        <v>440.3726934784146</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302454</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S43" t="n">
-        <v>2271.4829827684</v>
+        <v>2065.542080025266</v>
       </c>
       <c r="T43" t="n">
-        <v>2271.4829827684</v>
+        <v>1822.202732251166</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359499</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.734663049246</v>
+        <v>1260.306816359499</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.170766495052</v>
+        <v>1245.618398393177</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.8279981847936</v>
+        <v>1019.275630082919</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2837.654482149731</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N44" t="n">
-        <v>3813.905540636432</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O44" t="n">
-        <v>4659.050190787244</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1165.735894343786</v>
+        <v>1191.617659878698</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878698</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917196</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>281.4704040481062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>115.2621982009597</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7836,22 +7836,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.268477064743</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7993,10 +7993,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>40.92871399449528</v>
+        <v>521.1676505099919</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>41.11311644870237</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>330.8189978337128</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>47.10147559401449</v>
       </c>
       <c r="O3" t="n">
         <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>505.5475323587964</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8303,7 +8303,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>543.0285850494889</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>462.8067063011424</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>88.51522805109107</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8549,10 +8549,10 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N11" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8774,10 +8774,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>482.1725369225717</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8789,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.2011215599057</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>536.0439560200246</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9251,13 +9251,13 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M21" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>742.2139937908398</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>675.3923850715689</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10354,10 +10354,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,19 +10427,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>475.2939470053066</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O35" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10673,16 +10673,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10828,22 +10828,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804194</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10904,28 +10904,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>323.7517007838052</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>604.3877546542399</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>482.7542307206702</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,10 +11314,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>775.9541620884372</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255626</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.61286918175958</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>59.83992749586437</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>129.6396796633668</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>6.759898196019378</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2105945228214</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.7162783900487</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>85.73208539717123</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>54.09582208342405</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.629602785816</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.05873059384033</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.4048439973641</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>22.13019988286464</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.3132665360054</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.5967238019941</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492572.66270391</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492572.6627039099</v>
+        <v>492572.6627039101</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.6627039099</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492572.6627039101</v>
+        <v>492572.66270391</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553320.5346106048</v>
+      </c>
+      <c r="C2" t="n">
         <v>553320.5346106049</v>
-      </c>
-      <c r="C2" t="n">
-        <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
         <v>553320.5346106048</v>
       </c>
       <c r="E2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="F2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="G2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="H2" t="n">
         <v>533928.882980575</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="G2" t="n">
-        <v>533928.882980575</v>
-      </c>
-      <c r="H2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533928.8829805749</v>
-      </c>
       <c r="J2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="M2" t="n">
+        <v>533928.8829805751</v>
+      </c>
+      <c r="N2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="O2" t="n">
+        <v>533928.8829805745</v>
+      </c>
+      <c r="P2" t="n">
         <v>533928.8829805749</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533928.8829805747</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.8336736123</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701986</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="F4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="H4" t="n">
         <v>43748.40045389553</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
         <v>43748.40045389556</v>
@@ -26450,16 +26450,16 @@
         <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389561</v>
       </c>
       <c r="P4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216124</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148426.5975402141</v>
+        <v>148426.597540214</v>
       </c>
       <c r="C6" t="n">
         <v>297091.7108571078</v>
@@ -26530,40 +26530,40 @@
         <v>320498.54453072</v>
       </c>
       <c r="E6" t="n">
-        <v>196691.0637816091</v>
+        <v>196640.0331194247</v>
       </c>
       <c r="F6" t="n">
-        <v>412430.4203382495</v>
+        <v>412379.3896760651</v>
       </c>
       <c r="G6" t="n">
-        <v>412430.4203382498</v>
+        <v>412379.3896760653</v>
       </c>
       <c r="H6" t="n">
-        <v>412430.4203382494</v>
+        <v>412379.3896760654</v>
       </c>
       <c r="I6" t="n">
-        <v>412430.4203382496</v>
+        <v>412379.3896760652</v>
       </c>
       <c r="J6" t="n">
-        <v>285853.1517579606</v>
+        <v>285802.1210957764</v>
       </c>
       <c r="K6" t="n">
-        <v>393783.8199812298</v>
+        <v>393732.7893190454</v>
       </c>
       <c r="L6" t="n">
-        <v>412430.4203382494</v>
+        <v>412379.3896760653</v>
       </c>
       <c r="M6" t="n">
-        <v>232366.548883082</v>
+        <v>232315.5182208979</v>
       </c>
       <c r="N6" t="n">
-        <v>412430.4203382495</v>
+        <v>412379.3896760655</v>
       </c>
       <c r="O6" t="n">
-        <v>412430.4203382494</v>
+        <v>412379.389676065</v>
       </c>
       <c r="P6" t="n">
-        <v>412430.4203382495</v>
+        <v>412379.3896760654</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>74.12029283795354</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>299.1937240446604</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4539500830799454</v>
+        <v>69.8952926107355</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>152.6181964616706</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>185.3794149319307</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>104.4921214299933</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>274.8675256165719</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>53.82850041003985</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>57.75377325007423</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.34923771406913</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.609336215368174e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9.30691416654334e-13</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.537754638471188</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>3.537754638471073</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>307.7222173213848</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.75844738047282</v>
       </c>
       <c r="O3" t="n">
         <v>483.7766911539678</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>440.0596680121639</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>67.90411371775774</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N11" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>459.6574502083422</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404439</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35649,13 +35649,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35971,13 +35971,13 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M21" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>719.1172132785118</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>452.1971664929786</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O35" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37393,16 +37393,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477965</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>302.4086725702635</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>566.9967952982157</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>459.6574502083422</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711537</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38019,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,10 +38034,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3.207037443577763</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
